--- a/Code/models/Overview.xlsx
+++ b/Code/models/Overview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="280" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0AFF30-6F94-432C-9E84-507BC7A065C9}"/>
+  <xr:revisionPtr revIDLastSave="294" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3DA1765-4867-4835-A63C-10FC1BE57FD3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
+    <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15720" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
   <si>
     <t>Model name</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>SAC5</t>
+  </si>
+  <si>
+    <t>PPO1</t>
+  </si>
+  <si>
+    <t>PPO2</t>
   </si>
 </sst>
 </file>
@@ -216,8 +222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:Y9" totalsRowShown="0">
-  <autoFilter ref="A1:Y9" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:Y11" totalsRowShown="0">
+  <autoFilter ref="A1:Y11" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
   <tableColumns count="25">
     <tableColumn id="23" xr3:uid="{BEF6540B-F3B5-4713-9192-3B846C4AC722}" name="Experiment number"/>
     <tableColumn id="1" xr3:uid="{6B7AF0F7-D9EC-4F8B-BE16-2036DDCA95FD}" name="Model name"/>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB323A-07E7-4F5B-9791-06D91BB47B2D}">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,6 +1245,154 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q10">
+        <v>270</v>
+      </c>
+      <c r="R10">
+        <v>315</v>
+      </c>
+      <c r="S10">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q11">
+        <v>270</v>
+      </c>
+      <c r="R11">
+        <v>315</v>
+      </c>
+      <c r="S11">
+        <v>30</v>
+      </c>
+      <c r="T11">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Code/models/Overview.xlsx
+++ b/Code/models/Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{695111FF-558C-4E2E-84E7-74FD1F57CCC8}"/>
+  <xr:revisionPtr revIDLastSave="704" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429C905B-5553-495D-BE6A-B0BDF42F0B9B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1335" windowWidth="29040" windowHeight="15720" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="82">
   <si>
     <t>Model name</t>
   </si>
@@ -121,12 +121,6 @@
     <t>CustomEnv5</t>
   </si>
   <si>
-    <t>Only one wind direction</t>
-  </si>
-  <si>
-    <t>Wd sampled at reset. 270 or 315</t>
-  </si>
-  <si>
     <t>A2C6</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>CustomEnv6</t>
   </si>
   <si>
-    <t>Wd sampled at STEP. 270 or 315</t>
-  </si>
-  <si>
     <t>A2C10</t>
   </si>
   <si>
@@ -226,14 +217,77 @@
     <t>PPO3</t>
   </si>
   <si>
-    <t>%</t>
+    <t>All gave bad results</t>
+  </si>
+  <si>
+    <t>CustomEnv8</t>
+  </si>
+  <si>
+    <t>Changes wd</t>
+  </si>
+  <si>
+    <t>reset()</t>
+  </si>
+  <si>
+    <t>step()</t>
+  </si>
+  <si>
+    <t>270 or 315</t>
+  </si>
+  <si>
+    <t>A2C23</t>
+  </si>
+  <si>
+    <t>A2C24</t>
+  </si>
+  <si>
+    <t>A2C25</t>
+  </si>
+  <si>
+    <t>A2C26</t>
+  </si>
+  <si>
+    <t>CustomEnv9</t>
+  </si>
+  <si>
+    <t>270, 285, 300, 315, 330, 345, 360</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>turb_type</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>deflection</t>
+  </si>
+  <si>
+    <t>turbulence</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>nrel_5MW</t>
+  </si>
+  <si>
+    <t>sosfs</t>
+  </si>
+  <si>
+    <t>gauss</t>
+  </si>
+  <si>
+    <t>crespo_hernandez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +295,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,10 +343,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -285,9 +372,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:U27" totalsRowShown="0">
-  <autoFilter ref="A1:U27" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:AA31" totalsRowShown="0">
+  <autoFilter ref="A1:AA31" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
+  <tableColumns count="27">
     <tableColumn id="23" xr3:uid="{BEF6540B-F3B5-4713-9192-3B846C4AC722}" name="Experiment number"/>
     <tableColumn id="1" xr3:uid="{6B7AF0F7-D9EC-4F8B-BE16-2036DDCA95FD}" name="Model name"/>
     <tableColumn id="22" xr3:uid="{7063609E-2EB5-4968-84F4-E0E9CD5D444B}" name="Model type"/>
@@ -295,6 +382,11 @@
     <tableColumn id="3" xr3:uid="{5C656030-63E0-4716-ADEF-59E077A91CA1}" name="dist"/>
     <tableColumn id="4" xr3:uid="{926AFFAE-77CF-42F1-8056-F070683F7111}" name="nx"/>
     <tableColumn id="5" xr3:uid="{07297F93-1ADF-42FD-9A5E-74A8F52C7FD8}" name="ny"/>
+    <tableColumn id="27" xr3:uid="{348752A7-5390-42CD-ADC7-A3EAC4F57674}" name="turb_type"/>
+    <tableColumn id="10" xr3:uid="{7C0C5A2E-80CF-48C2-8130-C15263BC6FB5}" name="combination"/>
+    <tableColumn id="9" xr3:uid="{E7852BF2-9037-46B0-B8A7-D54014F3212F}" name="deflection"/>
+    <tableColumn id="8" xr3:uid="{66FE811E-FD05-4621-9528-4188E8E5AC5C}" name="turbulence"/>
+    <tableColumn id="7" xr3:uid="{12E5A6A6-5E66-4F6E-A070-09551DFBD879}" name="velocity"/>
     <tableColumn id="11" xr3:uid="{89D4B89A-E27C-4A8A-8C18-CCDEBB2B2CB8}" name="WS_min"/>
     <tableColumn id="12" xr3:uid="{83C29790-E907-418F-BC6F-71C76F3C1452}" name="WS_max"/>
     <tableColumn id="13" xr3:uid="{D26B58D0-3C02-490D-8E4A-29CB9076263F}" name="TI_min"/>
@@ -307,6 +399,7 @@
     <tableColumn id="25" xr3:uid="{59953711-010A-482F-A017-73FB3A818D7D}" name="Num CPU"/>
     <tableColumn id="24" xr3:uid="{1E0B240B-B62C-4492-AF3E-20A876C08F5E}" name="Environment"/>
     <tableColumn id="20" xr3:uid="{453CCF40-43F8-482D-8DD9-246D656381CB}" name="Done"/>
+    <tableColumn id="6" xr3:uid="{DB83952B-C2E8-4319-BAFE-74F0F2E23DEB}" name="Changes wd"/>
     <tableColumn id="21" xr3:uid="{3F7A58F9-6D69-48B3-8F95-EDFADC634AD9}" name="Notes"/>
     <tableColumn id="26" xr3:uid="{24CFA564-7E91-4CD9-AFF3-1AA0A612D663}" name="Tensorboard log"/>
   </tableColumns>
@@ -611,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB323A-07E7-4F5B-9791-06D91BB47B2D}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="AB29" sqref="AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,16 +717,17 @@
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="5.42578125" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -655,50 +749,68 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="V1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" t="s">
+      <c r="X1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="Y1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
-        <v>39</v>
+      <c r="AA1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -720,50 +832,65 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L2">
+      <c r="H2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>7</v>
+      </c>
+      <c r="O2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q2">
         <v>270</v>
       </c>
-      <c r="M2">
+      <c r="R2">
         <v>315</v>
       </c>
-      <c r="N2">
+      <c r="S2">
         <v>30</v>
       </c>
-      <c r="O2">
+      <c r="T2">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P2">
+      <c r="U2">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="V2">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
+      <c r="W2" t="s">
         <v>27</v>
       </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>270</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -785,50 +912,65 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>7</v>
-      </c>
-      <c r="I3">
-        <v>7</v>
-      </c>
-      <c r="J3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L3">
+      <c r="H3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>7</v>
+      </c>
+      <c r="O3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q3">
         <v>270</v>
       </c>
-      <c r="M3">
+      <c r="R3">
         <v>315</v>
       </c>
-      <c r="N3">
+      <c r="S3">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="T3">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P3">
-        <v>3</v>
-      </c>
-      <c r="Q3">
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
         <v>4</v>
       </c>
-      <c r="R3" t="s">
+      <c r="W3" t="s">
         <v>27</v>
       </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>40</v>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>270</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -850,50 +992,65 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>7</v>
-      </c>
-      <c r="J4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L4">
+      <c r="H4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q4">
         <v>270</v>
       </c>
-      <c r="M4">
+      <c r="R4">
         <v>315</v>
       </c>
-      <c r="N4">
+      <c r="S4">
         <v>30</v>
       </c>
-      <c r="O4">
+      <c r="T4">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P4">
-        <v>5</v>
-      </c>
-      <c r="Q4">
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="R4" t="s">
+      <c r="W4" t="s">
         <v>27</v>
       </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" t="s">
-        <v>40</v>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>270</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -915,50 +1072,68 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L5">
+      <c r="H5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q5">
         <v>270</v>
       </c>
-      <c r="M5">
+      <c r="R5">
         <v>315</v>
       </c>
-      <c r="N5">
+      <c r="S5">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="T5">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P5">
+      <c r="U5">
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="V5">
         <v>4</v>
       </c>
-      <c r="R5" t="s">
+      <c r="W5" t="s">
         <v>27</v>
       </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>40</v>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -980,55 +1155,73 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>7</v>
-      </c>
-      <c r="I6">
-        <v>7</v>
-      </c>
-      <c r="J6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K6">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L6">
+      <c r="H6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q6">
         <v>270</v>
       </c>
-      <c r="M6">
+      <c r="R6">
         <v>315</v>
       </c>
-      <c r="N6">
+      <c r="S6">
         <v>30</v>
       </c>
-      <c r="O6">
+      <c r="T6">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P6">
-        <v>3</v>
-      </c>
-      <c r="Q6">
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
         <v>4</v>
       </c>
-      <c r="R6" t="s">
+      <c r="W6" t="s">
         <v>27</v>
       </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" t="s">
-        <v>40</v>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -1045,55 +1238,73 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>7</v>
-      </c>
-      <c r="J7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L7">
+      <c r="H7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7">
+        <v>7</v>
+      </c>
+      <c r="N7">
+        <v>7</v>
+      </c>
+      <c r="O7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q7">
         <v>270</v>
       </c>
-      <c r="M7">
+      <c r="R7">
         <v>315</v>
       </c>
-      <c r="N7">
+      <c r="S7">
         <v>30</v>
       </c>
-      <c r="O7">
+      <c r="T7">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7">
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
         <v>4</v>
       </c>
-      <c r="R7" t="s">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7" t="s">
-        <v>29</v>
-      </c>
-      <c r="U7" t="s">
-        <v>40</v>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -1110,55 +1321,73 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-      <c r="J8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L8">
+      <c r="H8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q8">
         <v>270</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>315</v>
       </c>
-      <c r="N8">
+      <c r="S8">
         <v>30</v>
       </c>
-      <c r="O8">
+      <c r="T8">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P8">
+      <c r="U8">
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="V8">
         <v>4</v>
       </c>
-      <c r="R8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U8" t="s">
-        <v>40</v>
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1175,55 +1404,73 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L9">
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q9">
         <v>270</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>315</v>
       </c>
-      <c r="N9">
+      <c r="S9">
         <v>30</v>
       </c>
-      <c r="O9">
+      <c r="T9">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P9">
-        <v>3</v>
-      </c>
-      <c r="Q9">
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="R9" t="s">
-        <v>34</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
-        <v>40</v>
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -1240,55 +1487,73 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L10">
+      <c r="H10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q10">
         <v>270</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>315</v>
       </c>
-      <c r="N10">
+      <c r="S10">
         <v>30</v>
       </c>
-      <c r="O10">
+      <c r="T10">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10">
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10">
         <v>4</v>
       </c>
-      <c r="R10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" t="s">
-        <v>40</v>
+      <c r="W10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -1305,52 +1570,70 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="J11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L11">
+      <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11">
+        <v>7</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q11">
         <v>270</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>315</v>
       </c>
-      <c r="N11">
+      <c r="S11">
         <v>30</v>
       </c>
-      <c r="O11">
+      <c r="T11">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P11">
+      <c r="U11">
         <v>0</v>
       </c>
-      <c r="Q11">
+      <c r="V11">
         <v>4</v>
       </c>
-      <c r="R11" t="s">
+      <c r="W11" t="s">
         <v>22</v>
       </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="U11" t="s">
-        <v>40</v>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
@@ -1367,52 +1650,70 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="J12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L12">
+      <c r="H12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>7</v>
+      </c>
+      <c r="O12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q12">
         <v>270</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>315</v>
       </c>
-      <c r="N12">
+      <c r="S12">
         <v>30</v>
       </c>
-      <c r="O12">
+      <c r="T12">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P12">
-        <v>3</v>
-      </c>
-      <c r="Q12">
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
         <v>4</v>
       </c>
-      <c r="R12" t="s">
+      <c r="W12" t="s">
         <v>22</v>
       </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="U12" t="s">
-        <v>40</v>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -1429,52 +1730,70 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L13">
+      <c r="H13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q13">
         <v>270</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>315</v>
       </c>
-      <c r="N13">
+      <c r="S13">
         <v>30</v>
       </c>
-      <c r="O13">
+      <c r="T13">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
         <v>4</v>
       </c>
-      <c r="R13" t="s">
+      <c r="W13" t="s">
         <v>22</v>
       </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
-      <c r="U13" t="s">
-        <v>40</v>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
@@ -1491,52 +1810,70 @@
       <c r="G14">
         <v>3</v>
       </c>
-      <c r="H14">
-        <v>7</v>
-      </c>
-      <c r="I14">
-        <v>7</v>
-      </c>
-      <c r="J14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L14">
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>7</v>
+      </c>
+      <c r="O14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q14">
         <v>270</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>315</v>
       </c>
-      <c r="N14">
+      <c r="S14">
         <v>30</v>
       </c>
-      <c r="O14">
+      <c r="T14">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P14">
+      <c r="U14">
         <v>0</v>
       </c>
-      <c r="Q14">
+      <c r="V14">
         <v>4</v>
       </c>
-      <c r="R14" t="s">
+      <c r="W14" t="s">
         <v>22</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14" t="s">
-        <v>40</v>
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -1553,52 +1890,70 @@
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-      <c r="J15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K15">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L15">
+      <c r="H15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15">
+        <v>7</v>
+      </c>
+      <c r="N15">
+        <v>7</v>
+      </c>
+      <c r="O15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P15">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q15">
         <v>270</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>315</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>30</v>
       </c>
-      <c r="O15">
+      <c r="T15">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P15">
-        <v>3</v>
-      </c>
-      <c r="Q15">
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
         <v>4</v>
       </c>
-      <c r="R15" t="s">
+      <c r="W15" t="s">
         <v>22</v>
       </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="U15" t="s">
-        <v>40</v>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>16</v>
@@ -1615,55 +1970,73 @@
       <c r="G16">
         <v>3</v>
       </c>
-      <c r="H16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>7</v>
-      </c>
-      <c r="J16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L16">
+      <c r="H16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>7</v>
+      </c>
+      <c r="O16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q16">
         <v>270</v>
       </c>
-      <c r="M16">
+      <c r="R16">
         <v>315</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>30</v>
       </c>
-      <c r="O16">
+      <c r="T16">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P16">
-        <v>5</v>
-      </c>
-      <c r="Q16">
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
         <v>4</v>
       </c>
-      <c r="R16" t="s">
+      <c r="W16" t="s">
         <v>22</v>
       </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-      <c r="U16" t="s">
-        <v>40</v>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
       </c>
       <c r="D17">
         <v>100</v>
@@ -1677,55 +2050,73 @@
       <c r="G17">
         <v>3</v>
       </c>
-      <c r="H17">
-        <v>7</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="J17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K17">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L17">
+      <c r="H17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q17">
         <v>270</v>
       </c>
-      <c r="M17">
+      <c r="R17">
         <v>315</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>30</v>
       </c>
-      <c r="O17">
+      <c r="T17">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P17">
+      <c r="U17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
         <v>22</v>
       </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="U17" t="s">
-        <v>40</v>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>100</v>
@@ -1739,55 +2130,73 @@
       <c r="G18">
         <v>3</v>
       </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>7</v>
-      </c>
-      <c r="J18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L18">
+      <c r="H18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>7</v>
+      </c>
+      <c r="O18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q18">
         <v>270</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>315</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>30</v>
       </c>
-      <c r="O18">
+      <c r="T18">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P18">
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
         <v>22</v>
       </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18" t="s">
-        <v>40</v>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -1801,52 +2210,70 @@
       <c r="G19">
         <v>3</v>
       </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>7</v>
-      </c>
-      <c r="J19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L19">
+      <c r="H19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19">
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q19">
         <v>270</v>
       </c>
-      <c r="M19">
+      <c r="R19">
         <v>315</v>
       </c>
-      <c r="N19">
+      <c r="S19">
         <v>30</v>
       </c>
-      <c r="O19">
+      <c r="T19">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P19">
-        <v>5</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
         <v>22</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="U19" t="s">
-        <v>40</v>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1863,55 +2290,73 @@
       <c r="G20">
         <v>3</v>
       </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L20">
+      <c r="H20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P20">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q20">
         <v>270</v>
       </c>
-      <c r="M20">
+      <c r="R20">
         <v>315</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>30</v>
       </c>
-      <c r="O20">
+      <c r="T20">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P20">
+      <c r="U20">
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="V20">
         <v>4</v>
       </c>
-      <c r="R20" t="s">
+      <c r="W20" t="s">
         <v>27</v>
       </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20" t="s">
-        <v>51</v>
-      </c>
-      <c r="U20" t="s">
-        <v>40</v>
+      <c r="X20">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
@@ -1928,55 +2373,73 @@
       <c r="G21">
         <v>3</v>
       </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="I21">
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L21">
+      <c r="H21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q21">
         <v>270</v>
       </c>
-      <c r="M21">
+      <c r="R21">
         <v>315</v>
       </c>
-      <c r="N21">
+      <c r="S21">
         <v>30</v>
       </c>
-      <c r="O21">
+      <c r="T21">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P21">
-        <v>3</v>
-      </c>
-      <c r="Q21">
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
         <v>4</v>
       </c>
-      <c r="R21" t="s">
+      <c r="W21" t="s">
         <v>27</v>
       </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>51</v>
-      </c>
-      <c r="U21" t="s">
-        <v>40</v>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1993,127 +2456,166 @@
       <c r="G22">
         <v>3</v>
       </c>
-      <c r="H22">
-        <v>7</v>
-      </c>
-      <c r="I22">
-        <v>7</v>
-      </c>
-      <c r="J22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L22">
+      <c r="H22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22">
+        <v>7</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q22">
         <v>270</v>
       </c>
-      <c r="M22">
+      <c r="R22">
         <v>315</v>
       </c>
-      <c r="N22">
+      <c r="S22">
         <v>30</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
         <v>4</v>
       </c>
-      <c r="R22" t="s">
+      <c r="W22" t="s">
         <v>27</v>
       </c>
-      <c r="S22" t="s">
+      <c r="X22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" t="s">
         <v>63</v>
       </c>
-      <c r="T22" t="s">
+      <c r="Z22" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA22" t="s">
         <v>51</v>
       </c>
-      <c r="U22" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A22+1</f>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>0.05</v>
+      </c>
+      <c r="P23">
+        <v>0.05</v>
+      </c>
+      <c r="Q23">
+        <v>270</v>
+      </c>
+      <c r="R23">
+        <v>315</v>
+      </c>
+      <c r="S23">
+        <v>30</v>
+      </c>
+      <c r="T23">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>4</v>
+      </c>
+      <c r="W23" t="s">
+        <v>49</v>
+      </c>
+      <c r="X23">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z23" t="s">
         <v>56</v>
       </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>7</v>
-      </c>
-      <c r="I23">
-        <v>7</v>
-      </c>
-      <c r="J23">
-        <v>0.05</v>
-      </c>
-      <c r="K23">
-        <v>0.05</v>
-      </c>
-      <c r="L23">
-        <v>270</v>
-      </c>
-      <c r="M23">
-        <v>315</v>
-      </c>
-      <c r="N23">
-        <v>30</v>
-      </c>
-      <c r="O23">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>4</v>
-      </c>
-      <c r="R23" t="s">
-        <v>52</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>53</v>
-      </c>
-      <c r="U23" t="s">
-        <v>59</v>
+      <c r="AA23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB23" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>5</v>
@@ -2124,61 +2626,80 @@
       <c r="G24">
         <v>2</v>
       </c>
-      <c r="H24">
-        <v>7</v>
-      </c>
-      <c r="I24">
-        <v>7</v>
-      </c>
-      <c r="J24">
+      <c r="H24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>7</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
         <v>0.05</v>
       </c>
-      <c r="K24">
+      <c r="P24">
         <v>0.05</v>
       </c>
-      <c r="L24">
+      <c r="Q24">
         <v>270</v>
       </c>
-      <c r="M24">
+      <c r="R24">
         <v>315</v>
       </c>
-      <c r="N24">
+      <c r="S24">
         <v>30</v>
       </c>
-      <c r="O24">
+      <c r="T24">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P24">
+      <c r="U24">
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="V24">
         <v>4</v>
       </c>
-      <c r="R24" t="s">
-        <v>52</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-      <c r="T24" t="s">
-        <v>53</v>
-      </c>
-      <c r="U24" t="s">
-        <v>59</v>
-      </c>
+      <c r="W24" t="s">
+        <v>49</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -2189,126 +2710,164 @@
       <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25">
-        <v>7</v>
-      </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25">
+      <c r="H25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
         <v>0.05</v>
       </c>
-      <c r="K25">
+      <c r="P25">
         <v>0.05</v>
       </c>
-      <c r="L25">
+      <c r="Q25">
         <v>270</v>
       </c>
-      <c r="M25">
+      <c r="R25">
         <v>315</v>
       </c>
-      <c r="N25">
+      <c r="S25">
         <v>30</v>
       </c>
-      <c r="O25">
+      <c r="T25">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P25">
+      <c r="U25">
         <v>10</v>
       </c>
-      <c r="Q25">
+      <c r="V25">
         <v>4</v>
       </c>
-      <c r="R25" t="s">
-        <v>52</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25" t="s">
-        <v>53</v>
-      </c>
-      <c r="U25" t="s">
-        <v>59</v>
-      </c>
+      <c r="W25" t="s">
+        <v>49</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26">
+        <v>7</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>0.05</v>
+      </c>
+      <c r="P26">
+        <v>0.05</v>
+      </c>
+      <c r="Q26">
+        <v>270</v>
+      </c>
+      <c r="R26">
+        <v>315</v>
+      </c>
+      <c r="S26">
+        <v>30</v>
+      </c>
+      <c r="T26">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26" t="s">
+        <v>49</v>
+      </c>
+      <c r="X26">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z26" t="s">
         <v>56</v>
       </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>7</v>
-      </c>
-      <c r="I26">
-        <v>7</v>
-      </c>
-      <c r="J26">
-        <v>0.05</v>
-      </c>
-      <c r="K26">
-        <v>0.05</v>
-      </c>
-      <c r="L26">
-        <v>270</v>
-      </c>
-      <c r="M26">
-        <v>315</v>
-      </c>
-      <c r="N26">
-        <v>30</v>
-      </c>
-      <c r="O26">
-        <v>1.2250000000000001</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>4</v>
-      </c>
-      <c r="R26" t="s">
-        <v>52</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-      <c r="T26" t="s">
-        <v>53</v>
-      </c>
-      <c r="U26" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA26" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>5</v>
@@ -2319,50 +2878,404 @@
       <c r="G27">
         <v>2</v>
       </c>
-      <c r="H27">
-        <v>7</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-      <c r="J27">
+      <c r="H27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
         <v>0.05</v>
       </c>
-      <c r="K27">
+      <c r="P27">
         <v>0.05</v>
       </c>
-      <c r="L27">
+      <c r="Q27">
         <v>270</v>
       </c>
-      <c r="M27">
+      <c r="R27">
         <v>315</v>
       </c>
-      <c r="N27">
+      <c r="S27">
         <v>30</v>
       </c>
-      <c r="O27">
+      <c r="T27">
         <v>1.2250000000000001</v>
       </c>
-      <c r="P27">
+      <c r="U27">
         <v>0</v>
       </c>
-      <c r="Q27">
+      <c r="V27">
         <v>4</v>
       </c>
-      <c r="R27" t="s">
-        <v>52</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
-        <v>53</v>
-      </c>
-      <c r="U27" t="s">
-        <v>59</v>
+      <c r="W27" t="s">
+        <v>49</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q28">
+        <v>270</v>
+      </c>
+      <c r="R28">
+        <v>315</v>
+      </c>
+      <c r="S28">
+        <v>30</v>
+      </c>
+      <c r="T28">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q29">
+        <v>270</v>
+      </c>
+      <c r="R29">
+        <v>315</v>
+      </c>
+      <c r="S29">
+        <v>30</v>
+      </c>
+      <c r="T29">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U29">
+        <v>42</v>
+      </c>
+      <c r="V29">
+        <v>4</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q30">
+        <v>270</v>
+      </c>
+      <c r="R30">
+        <v>315</v>
+      </c>
+      <c r="S30">
+        <v>30</v>
+      </c>
+      <c r="T30">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>4</v>
+      </c>
+      <c r="W30" t="s">
+        <v>70</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31">
+        <v>7</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q31">
+        <v>270</v>
+      </c>
+      <c r="R31">
+        <v>315</v>
+      </c>
+      <c r="S31">
+        <v>30</v>
+      </c>
+      <c r="T31">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U31">
+        <v>42</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31" t="s">
+        <v>70</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AB23:AB27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <tableParts count="1">

--- a/Code/models/Overview.xlsx
+++ b/Code/models/Overview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/24c4bf95f6187469/Uni/Speciale/Thesis/Code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="704" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429C905B-5553-495D-BE6A-B0BDF42F0B9B}"/>
+  <xr:revisionPtr revIDLastSave="772" documentId="8_{F843F348-9006-4D24-8E29-234216C4289C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7164D3F3-8C48-4883-9AFA-FDCED6ADEF85}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A022F170-1B7F-4899-B397-23FEA77CFA8C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="90">
   <si>
     <t>Model name</t>
   </si>
@@ -238,15 +238,9 @@
     <t>A2C23</t>
   </si>
   <si>
-    <t>A2C24</t>
-  </si>
-  <si>
     <t>A2C25</t>
   </si>
   <si>
-    <t>A2C26</t>
-  </si>
-  <si>
     <t>CustomEnv9</t>
   </si>
   <si>
@@ -281,6 +275,37 @@
   </si>
   <si>
     <t>crespo_hernandez</t>
+  </si>
+  <si>
+    <t>A2C27</t>
+  </si>
+  <si>
+    <t>A2C28</t>
+  </si>
+  <si>
+    <t>A2C29</t>
+  </si>
+  <si>
+    <t>A2C30</t>
+  </si>
+  <si>
+    <t>If reward &lt; 0 
+reward += -3</t>
+  </si>
+  <si>
+    <t>A2C31</t>
+  </si>
+  <si>
+    <t>A2C32</t>
+  </si>
+  <si>
+    <t>A2C33</t>
+  </si>
+  <si>
+    <t>A2C34</t>
+  </si>
+  <si>
+    <t>Does not -3 for negative reward</t>
   </si>
 </sst>
 </file>
@@ -343,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +378,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -372,8 +403,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:AA31" totalsRowShown="0">
-  <autoFilter ref="A1:AA31" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}" name="Table1" displayName="Table1" ref="A1:AA37" totalsRowShown="0">
+  <autoFilter ref="A1:AA37" xr:uid="{25EE4B5D-02B8-47B9-9466-ACB12D27B3A1}"/>
   <tableColumns count="27">
     <tableColumn id="23" xr3:uid="{BEF6540B-F3B5-4713-9192-3B846C4AC722}" name="Experiment number"/>
     <tableColumn id="1" xr3:uid="{6B7AF0F7-D9EC-4F8B-BE16-2036DDCA95FD}" name="Model name"/>
@@ -704,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CCB323A-07E7-4F5B-9791-06D91BB47B2D}">
-  <dimension ref="A1:AB31"/>
+  <dimension ref="A1:AB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="AB29" sqref="AB29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,19 +781,19 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="M1" t="s">
         <v>19</v>
@@ -833,19 +864,19 @@
         <v>1</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M2">
         <v>7</v>
@@ -913,19 +944,19 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M3">
         <v>7</v>
@@ -993,19 +1024,19 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M4">
         <v>7</v>
@@ -1073,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M5">
         <v>7</v>
@@ -1156,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M6">
         <v>7</v>
@@ -1239,19 +1270,19 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L7" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -1322,19 +1353,19 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M8">
         <v>7</v>
@@ -1405,19 +1436,19 @@
         <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -1488,19 +1519,19 @@
         <v>1</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M10">
         <v>7</v>
@@ -1571,19 +1602,19 @@
         <v>1</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L11" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1651,19 +1682,19 @@
         <v>1</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M12">
         <v>7</v>
@@ -1731,19 +1762,19 @@
         <v>1</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L13" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M13">
         <v>7</v>
@@ -1811,19 +1842,19 @@
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -1891,19 +1922,19 @@
         <v>3</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M15">
         <v>7</v>
@@ -1971,19 +2002,19 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M16">
         <v>7</v>
@@ -2051,19 +2082,19 @@
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M17">
         <v>7</v>
@@ -2131,19 +2162,19 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="L18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M18">
         <v>7</v>
@@ -2211,19 +2242,19 @@
         <v>3</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M19">
         <v>7</v>
@@ -2291,19 +2322,19 @@
         <v>3</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L20" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -2374,19 +2405,19 @@
         <v>3</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L21" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M21">
         <v>7</v>
@@ -2457,19 +2488,19 @@
         <v>3</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M22">
         <v>7</v>
@@ -2505,7 +2536,7 @@
         <v>27</v>
       </c>
       <c r="X22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y22" t="s">
         <v>63</v>
@@ -2541,19 +2572,19 @@
         <v>3</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -2627,19 +2658,19 @@
         <v>2</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M24">
         <v>7</v>
@@ -2711,19 +2742,19 @@
         <v>2</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L25" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M25">
         <v>7</v>
@@ -2795,19 +2826,19 @@
         <v>3</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L26" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -2879,19 +2910,19 @@
         <v>2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L27" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -2963,19 +2994,19 @@
         <v>2</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L28" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M28">
         <v>7</v>
@@ -3011,21 +3042,24 @@
         <v>61</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="s">
         <v>63</v>
       </c>
       <c r="Z28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA28" t="s">
         <v>56</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
@@ -3034,7 +3068,7 @@
         <v>16</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>5</v>
@@ -3046,19 +3080,19 @@
         <v>2</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L29" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M29">
         <v>7</v>
@@ -3085,39 +3119,40 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="U29">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="V29">
         <v>4</v>
       </c>
       <c r="W29" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA29" t="s">
         <v>56</v>
       </c>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>5</v>
@@ -3129,19 +3164,19 @@
         <v>2</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L30" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M30">
         <v>7</v>
@@ -3174,33 +3209,34 @@
         <v>4</v>
       </c>
       <c r="W30" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA30" t="s">
         <v>56</v>
       </c>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>5</v>
@@ -3212,19 +3248,19 @@
         <v>2</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="L31" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -3257,24 +3293,533 @@
         <v>4</v>
       </c>
       <c r="W31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA31" t="s">
         <v>56</v>
       </c>
+      <c r="AB31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M32">
+        <v>7</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P32">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q32">
+        <v>270</v>
+      </c>
+      <c r="R32">
+        <v>315</v>
+      </c>
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="T32">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32" t="s">
+        <v>68</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB32" s="7"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33">
+        <v>7</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P33">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q33">
+        <v>270</v>
+      </c>
+      <c r="R33">
+        <v>315</v>
+      </c>
+      <c r="S33">
+        <v>30</v>
+      </c>
+      <c r="T33">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U33">
+        <v>42</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB33" s="7"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34">
+        <v>7</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P34">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q34">
+        <v>270</v>
+      </c>
+      <c r="R34">
+        <v>315</v>
+      </c>
+      <c r="S34">
+        <v>30</v>
+      </c>
+      <c r="T34">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>4</v>
+      </c>
+      <c r="W34" t="s">
+        <v>61</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M35">
+        <v>7</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q35">
+        <v>270</v>
+      </c>
+      <c r="R35">
+        <v>315</v>
+      </c>
+      <c r="S35">
+        <v>30</v>
+      </c>
+      <c r="T35">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U35">
+        <v>42</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35" t="s">
+        <v>61</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB35" s="6"/>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M36">
+        <v>7</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P36">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q36">
+        <v>270</v>
+      </c>
+      <c r="R36">
+        <v>315</v>
+      </c>
+      <c r="S36">
+        <v>30</v>
+      </c>
+      <c r="T36">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36" t="s">
+        <v>68</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB36" s="6"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M37">
+        <v>7</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q37">
+        <v>270</v>
+      </c>
+      <c r="R37">
+        <v>315</v>
+      </c>
+      <c r="S37">
+        <v>30</v>
+      </c>
+      <c r="T37">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="U37">
+        <v>42</v>
+      </c>
+      <c r="V37">
+        <v>4</v>
+      </c>
+      <c r="W37" t="s">
+        <v>68</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB37" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="AB23:AB27"/>
+    <mergeCell ref="AB28:AB33"/>
+    <mergeCell ref="AB34:AB37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
